--- a/WLS_CM_Plan.xlsx
+++ b/WLS_CM_Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
   <si>
     <t>Project Configuration Management Plan</t>
   </si>
@@ -64,13 +64,10 @@
     <t>DEV</t>
   </si>
   <si>
-    <t>vn.vtd.wls.admin.controller</t>
+    <t>Chi tiết trong tài liệu Framework Design</t>
   </si>
   <si>
     <t>NhiHY</t>
-  </si>
-  <si>
-    <t>vn.vtd.wls.admin.service</t>
   </si>
   <si>
     <t>HienNTU</t>
@@ -79,16 +76,10 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>vn.vtd.wls.user.controller</t>
-  </si>
-  <si>
     <t>Not Member</t>
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>vn.vtd.wls.user.service</t>
   </si>
   <si>
     <t>All Member</t>
@@ -391,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -434,6 +425,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -443,7 +449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,67 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -540,17 +485,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +523,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -578,10 +537,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -612,25 +603,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +639,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,25 +681,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,13 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,13 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,13 +741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,49 +759,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,17 +806,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,6 +835,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -856,20 +882,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,175 +903,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1497,8 +1488,8 @@
   <sheetPr/>
   <dimension ref="A1:K980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -1699,19 +1690,17 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="13">
         <v>6</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="9"/>
     </row>
@@ -1719,16 +1708,14 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="9"/>
@@ -1737,16 +1724,14 @@
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="9"/>
@@ -1767,7 +1752,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -1791,22 +1776,22 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="H18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1816,14 +1801,14 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="29"/>
@@ -1836,19 +1821,19 @@
       <c r="C20" s="2"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="27" t="s">
         <v>36</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1859,19 +1844,19 @@
       <c r="C21" s="2"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1882,19 +1867,19 @@
       <c r="C22" s="2"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>46</v>
-      </c>
       <c r="I22" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1917,14 +1902,14 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="29"/>
@@ -1937,19 +1922,19 @@
       <c r="C25" s="2"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1960,16 +1945,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I26" s="27">
         <v>2</v>
@@ -1983,19 +1968,19 @@
       <c r="C27" s="2"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="I27" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2018,14 +2003,14 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="29"/>
@@ -2038,16 +2023,16 @@
       <c r="C30" s="2"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I30" s="27">
         <v>6</v>
@@ -2061,19 +2046,19 @@
       <c r="C31" s="2"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2084,16 +2069,16 @@
       <c r="C32" s="2"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I32" s="27">
         <v>6</v>
@@ -2107,16 +2092,16 @@
       <c r="C33" s="2"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I33" s="27">
         <v>6</v>
@@ -2142,14 +2127,14 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="29"/>
@@ -2165,13 +2150,13 @@
         <v>9</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I36" s="27">
         <v>2</v>
@@ -2188,13 +2173,13 @@
         <v>12</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I37" s="27">
         <v>3</v>
@@ -2211,13 +2196,13 @@
         <v>14</v>
       </c>
       <c r="F38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H38" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I38" s="27">
         <v>4</v>
@@ -2234,13 +2219,13 @@
         <v>17</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I39" s="27">
         <v>5</v>
@@ -2266,14 +2251,14 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="29"/>
@@ -2286,16 +2271,16 @@
       <c r="C42" s="2"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I42" s="27">
         <v>6</v>
@@ -2321,12 +2306,12 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="17"/>
       <c r="G44" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="29"/>
@@ -2339,19 +2324,19 @@
       <c r="C45" s="2"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>89</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -2362,19 +2347,19 @@
       <c r="C46" s="2"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2385,19 +2370,19 @@
       <c r="C47" s="2"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -2420,14 +2405,14 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="29"/>
@@ -2440,17 +2425,17 @@
       <c r="C50" s="2"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -2464,10 +2449,10 @@
       <c r="F51" s="20"/>
       <c r="G51" s="7"/>
       <c r="H51" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -2481,10 +2466,10 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2507,14 +2492,14 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H54" s="18"/>
       <c r="I54" s="29"/>
@@ -2527,19 +2512,19 @@
       <c r="C55" s="2"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -2550,19 +2535,19 @@
       <c r="C56" s="2"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -2573,17 +2558,17 @@
       <c r="C57" s="2"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -2594,19 +2579,19 @@
       <c r="C58" s="2"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -2629,14 +2614,14 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="29"/>
@@ -2653,10 +2638,10 @@
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I61" s="26">
         <v>1</v>
@@ -2674,10 +2659,10 @@
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I62" s="27">
         <v>2</v>
@@ -2695,10 +2680,10 @@
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I63" s="27">
         <v>3</v>
@@ -2715,10 +2700,10 @@
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I64" s="27">
         <v>4</v>
@@ -2735,10 +2720,10 @@
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I65" s="27">
         <v>5</v>
@@ -2751,14 +2736,14 @@
       <c r="C66" s="2"/>
       <c r="D66" s="7"/>
       <c r="E66" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I66" s="27">
         <v>6</v>

--- a/WLS_CM_Plan.xlsx
+++ b/WLS_CM_Plan.xlsx
@@ -125,9 +125,6 @@
     <t>Requirement\QA</t>
   </si>
   <si>
-    <t>2,3,4,5,6</t>
-  </si>
-  <si>
     <t>URD</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
   </si>
   <si>
     <t>Design</t>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:K980"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -1833,7 +1833,7 @@
         <v>23</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1844,13 +1844,13 @@
       <c r="C21" s="2"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>23</v>
@@ -1867,19 +1867,19 @@
       <c r="C22" s="2"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="H22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="I22" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1980,7 +1980,7 @@
         <v>56</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2547,7 +2547,7 @@
         <v>23</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>

--- a/WLS_CM_Plan.xlsx
+++ b/WLS_CM_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="12270"/>
+    <workbookView windowWidth="28200" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t>Project Configuration Management Plan</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>NhiHY</t>
+  </si>
+  <si>
+    <t>HoangPH</t>
   </si>
   <si>
     <t>HienNTU</t>
@@ -146,7 +149,7 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>2,3,4,5,6</t>
+    <t>2,3,4,5,6,7</t>
   </si>
   <si>
     <t>Design</t>
@@ -213,7 +216,7 @@
     <t>Testing\Test Case</t>
   </si>
   <si>
-    <t>2,3,4,5</t>
+    <t>2,3,4,5,7</t>
   </si>
   <si>
     <t>Test Report</t>
@@ -376,16 +379,19 @@
   <si>
     <t>Users\HienNTU</t>
   </si>
+  <si>
+    <t xml:space="preserve">Users\HoangPH </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -434,24 +440,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,10 +468,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,14 +493,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,31 +536,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,22 +551,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -603,7 +609,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +729,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,157 +777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +812,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,15 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -856,17 +857,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,15 +873,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,148 +891,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,10 +1138,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1486,25 +1492,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K980"/>
+  <dimension ref="A1:K981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.45" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.90666666666667" customWidth="1"/>
-    <col min="2" max="2" width="3.18" customWidth="1"/>
-    <col min="3" max="3" width="3.54" customWidth="1"/>
+    <col min="1" max="1" width="1.90833333333333" customWidth="1"/>
+    <col min="2" max="2" width="3.18333333333333" customWidth="1"/>
+    <col min="3" max="3" width="3.54166666666667" customWidth="1"/>
     <col min="4" max="4" width="20.2666666666667" customWidth="1"/>
     <col min="5" max="5" width="24.2666666666667" customWidth="1"/>
     <col min="6" max="6" width="42.2666666666667" customWidth="1"/>
     <col min="7" max="7" width="33.8" customWidth="1"/>
-    <col min="8" max="8" width="21.4533333333333" customWidth="1"/>
-    <col min="9" max="9" width="18.4533333333333" customWidth="1"/>
+    <col min="8" max="8" width="21.45" customWidth="1"/>
+    <col min="9" max="9" width="18.45" customWidth="1"/>
     <col min="10" max="10" width="11.2666666666667" customWidth="1"/>
-    <col min="11" max="23" width="8.72666666666667" customWidth="1"/>
+    <col min="11" max="23" width="8.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:10">
@@ -1519,7 +1525,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" ht="27.75" spans="1:10">
+    <row r="2" ht="24.75" spans="1:10">
       <c r="A2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1697,10 +1703,10 @@
         <v>18</v>
       </c>
       <c r="H12" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J12" s="9"/>
     </row>
@@ -1711,13 +1717,15 @@
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="13">
+        <v>6</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="13"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:10">
@@ -1728,10 +1736,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="9"/>
@@ -1743,120 +1751,113 @@
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:11">
+    <row r="18" ht="15.75" customHeight="1" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" ht="33" customHeight="1" spans="1:11">
+    <row r="20" ht="15.75" customHeight="1" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="G20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:11">
+    <row r="21" ht="33" customHeight="1" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="H21" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1867,19 +1868,19 @@
       <c r="C22" s="2"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>41</v>
-      </c>
       <c r="H22" s="21" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1889,11 +1890,21 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="27"/>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
@@ -1901,18 +1912,12 @@
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="29"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
@@ -1920,22 +1925,18 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>49</v>
-      </c>
+      <c r="G25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
@@ -1945,19 +1946,19 @@
       <c r="C26" s="2"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="27">
-        <v>2</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1968,19 +1969,19 @@
       <c r="C27" s="2"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="I27" s="27">
+        <v>2</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1990,11 +1991,21 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="27"/>
+      <c r="E28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
@@ -2002,18 +2013,12 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="29"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
@@ -2021,67 +2026,63 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="27">
-        <v>6</v>
-      </c>
+      <c r="G30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" ht="51" customHeight="1" spans="1:11">
+    <row r="31" ht="15.75" customHeight="1" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="H31" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="I31" s="27">
+        <v>6</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:11">
+    <row r="32" ht="51" customHeight="1" spans="1:11">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="27">
-        <v>6</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2092,16 +2093,16 @@
       <c r="C33" s="2"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="H33" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" s="27">
         <v>6</v>
@@ -2114,53 +2115,53 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="27"/>
+      <c r="E34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="27">
+        <v>6</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" ht="21" customHeight="1" spans="1:11">
+    <row r="35" ht="15.75" customHeight="1" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="29"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:11">
+    <row r="36" ht="21" customHeight="1" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="20" t="s">
+      <c r="D36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="27">
-        <v>2</v>
-      </c>
+      <c r="G36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
@@ -2170,19 +2171,19 @@
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2193,19 +2194,19 @@
       <c r="C38" s="2"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2216,19 +2217,19 @@
       <c r="C39" s="2"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2238,11 +2239,21 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="27"/>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="27">
+        <v>5</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
@@ -2250,18 +2261,12 @@
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="29"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
@@ -2269,22 +2274,18 @@
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="D42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="27">
-        <v>6</v>
-      </c>
+      <c r="G42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
@@ -2293,11 +2294,21 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="27"/>
+      <c r="E43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="27">
+        <v>6</v>
+      </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
@@ -2305,16 +2316,12 @@
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="29"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
@@ -2322,22 +2329,16 @@
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>86</v>
-      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
@@ -2347,19 +2348,19 @@
       <c r="C46" s="2"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2370,19 +2371,19 @@
       <c r="C47" s="2"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="H47" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -2392,11 +2393,21 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="27"/>
+      <c r="E48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
@@ -2404,18 +2415,12 @@
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="29"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
@@ -2423,20 +2428,18 @@
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>86</v>
-      </c>
+      <c r="G50" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
@@ -2445,14 +2448,18 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="H51" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -2464,12 +2471,12 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2482,8 +2489,12 @@
       <c r="E53" s="7"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="27"/>
+      <c r="H53" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>87</v>
+      </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
@@ -2491,63 +2502,53 @@
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="28"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" spans="1:11">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" s="9"/>
+      <c r="G55" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" ht="34" customHeight="1" spans="1:11">
+    <row r="56" ht="15.75" customHeight="1" spans="1:11">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="H56" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -2558,137 +2559,140 @@
       <c r="C57" s="2"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="21"/>
+      <c r="H57" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="I57" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" ht="57" customHeight="1" spans="1:11">
+    <row r="58" ht="34" customHeight="1" spans="1:11">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="H58" s="21"/>
       <c r="I58" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" spans="1:11">
+    <row r="59" ht="57" customHeight="1" spans="1:11">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="27"/>
+      <c r="E59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" ht="47.25" spans="1:11">
+    <row r="60" ht="15.75" customHeight="1" spans="1:11">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="29"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="27"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" ht="15.75" spans="1:11">
+    <row r="61" ht="40.5" spans="1:11">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="20" t="s">
+      <c r="D61" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H61" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="26">
-        <v>1</v>
-      </c>
+      <c r="G61" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" spans="1:11">
+    <row r="62" ht="13.5" spans="1:11">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="20"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="25"/>
       <c r="G62" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H62" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62" s="27">
-        <v>2</v>
+      <c r="H62" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="26">
+        <v>1</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1" spans="1:10">
+    <row r="63" ht="15.75" customHeight="1" spans="1:11">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="20" t="s">
-        <v>12</v>
+      <c r="E63" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20" t="s">
         <v>115</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I63" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:10">
       <c r="A64" s="1"/>
@@ -2696,17 +2700,17 @@
       <c r="C64" s="2"/>
       <c r="D64" s="7"/>
       <c r="E64" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H64" s="28" t="s">
-        <v>23</v>
+      <c r="H64" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="I64" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64" s="9"/>
     </row>
@@ -2716,17 +2720,17 @@
       <c r="C65" s="2"/>
       <c r="D65" s="7"/>
       <c r="E65" s="20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H65" s="27" t="s">
-        <v>23</v>
+      <c r="H65" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="I65" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J65" s="9"/>
     </row>
@@ -2736,17 +2740,17 @@
       <c r="C66" s="2"/>
       <c r="D66" s="7"/>
       <c r="E66" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="20" t="s">
         <v>118</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I66" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" s="9"/>
     </row>
@@ -2755,23 +2759,39 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="20"/>
+      <c r="E67" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
+      <c r="G67" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="27">
+        <v>6</v>
+      </c>
       <c r="J67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="1:10">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="27">
+        <v>7</v>
+      </c>
       <c r="J68" s="9"/>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="1:10">
@@ -13718,6 +13738,18 @@
       <c r="I980" s="9"/>
       <c r="J980" s="9"/>
     </row>
+    <row r="981" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A981" s="1"/>
+      <c r="B981" s="2"/>
+      <c r="C981" s="2"/>
+      <c r="D981" s="2"/>
+      <c r="E981" s="1"/>
+      <c r="F981" s="1"/>
+      <c r="G981" s="1"/>
+      <c r="H981" s="9"/>
+      <c r="I981" s="9"/>
+      <c r="J981" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>
